--- a/doc/PerplexityResults/TGPerformanceTester.xlsx
+++ b/doc/PerplexityResults/TGPerformanceTester.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>docs</t>
   </si>
@@ -39,7 +39,10 @@
     <t xml:space="preserve"> millis</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-196213264"/>
-        <c:axId val="-196204016"/>
+        <c:axId val="1556372320"/>
+        <c:axId val="1556381024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-196213264"/>
+        <c:axId val="1556372320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,12 +1231,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-196204016"/>
+        <c:crossAx val="1556381024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-196204016"/>
+        <c:axId val="1556381024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-196213264"/>
+        <c:crossAx val="1556372320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1390,7 +1393,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2139,11 +2142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-103964944"/>
-        <c:axId val="-103961136"/>
+        <c:axId val="1556382656"/>
+        <c:axId val="1556376672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-103964944"/>
+        <c:axId val="1556382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,12 +2259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-103961136"/>
+        <c:crossAx val="1556376672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-103961136"/>
+        <c:axId val="1556376672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-103964944"/>
+        <c:crossAx val="1556382656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2418,7 +2421,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2505,40 +2508,6 @@
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-                      <a:t>y = 0,0168x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-                      <a:t> - 5,4929x - 25,974</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-AU" sz="1100"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2582,118 +2551,118 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>999</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1196</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1399</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>1587</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1699</c:v>
+                  <c:v>1687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1797</c:v>
+                  <c:v>1787</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1898</c:v>
+                  <c:v>1871</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2098</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2196</c:v>
+                  <c:v>2178</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2298</c:v>
+                  <c:v>2270</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2399</c:v>
+                  <c:v>2368</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2493</c:v>
+                  <c:v>2476</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2595</c:v>
+                  <c:v>2562</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2694</c:v>
+                  <c:v>2661</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2797</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2895</c:v>
+                  <c:v>2858</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2998</c:v>
+                  <c:v>2950</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3094</c:v>
+                  <c:v>3065</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3194</c:v>
+                  <c:v>3146</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3296</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3391</c:v>
+                  <c:v>3353</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3490</c:v>
+                  <c:v>3437</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3593</c:v>
+                  <c:v>3538</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3694</c:v>
+                  <c:v>3629</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3793</c:v>
+                  <c:v>3740</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3887</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3994</c:v>
+                  <c:v>3926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,124 +2674,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>248</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>556</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1370</c:v>
+                  <c:v>1701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2091</c:v>
+                  <c:v>3259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3550</c:v>
+                  <c:v>4878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5263</c:v>
+                  <c:v>6934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6209</c:v>
+                  <c:v>8864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7229</c:v>
+                  <c:v>11189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10167</c:v>
+                  <c:v>13963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13878</c:v>
+                  <c:v>16862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17302</c:v>
+                  <c:v>18715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19903</c:v>
+                  <c:v>21208</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23250</c:v>
+                  <c:v>25695</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29563</c:v>
+                  <c:v>25587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31356</c:v>
+                  <c:v>29533</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36961</c:v>
+                  <c:v>32593</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45743</c:v>
+                  <c:v>38394</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49139</c:v>
+                  <c:v>38269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56927</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62174</c:v>
+                  <c:v>46652</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67868</c:v>
+                  <c:v>51776</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81369</c:v>
+                  <c:v>53013</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80708</c:v>
+                  <c:v>62110</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91738</c:v>
+                  <c:v>61731</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>102829</c:v>
+                  <c:v>67651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107393</c:v>
+                  <c:v>69036</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>119589</c:v>
+                  <c:v>74205</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119035</c:v>
+                  <c:v>77928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>138189</c:v>
+                  <c:v>81457</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>152731</c:v>
+                  <c:v>83414</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>148095</c:v>
+                  <c:v>86984</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>170667</c:v>
+                  <c:v>94432</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>179006</c:v>
+                  <c:v>102606</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>178649</c:v>
+                  <c:v>96496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>198241</c:v>
+                  <c:v>107138</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>204378</c:v>
+                  <c:v>110177</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>222847</c:v>
+                  <c:v>115515</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>234690</c:v>
+                  <c:v>115565</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>244599</c:v>
+                  <c:v>122192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,11 +2806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-104183600"/>
-        <c:axId val="-471350848"/>
+        <c:axId val="1556376128"/>
+        <c:axId val="1556378304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-104183600"/>
+        <c:axId val="1556376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2851,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Number of Words per Topic</a:t>
+                  <a:t>|V|</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2954,12 +2923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-471350848"/>
+        <c:crossAx val="1556378304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-471350848"/>
+        <c:axId val="1556378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3041,1257 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104183600"/>
+        <c:crossAx val="1556376128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>performance!$E$205:$E$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2476</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3447</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3815</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>performance!$F$205:$F$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17484</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17383</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24742</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23959</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29418</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34107</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38974</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42181</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46168</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47687</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49524</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1556384832"/>
+        <c:axId val="1556385376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1556384832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556385376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1556385376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1556384832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                      <a:t>y = 0,0029x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                      <a:t> + 12,399x - 4535,9</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>performance!$E$246:$E$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3394</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>performance!$F$246:$F$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11461</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21491</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30883</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47048</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54947</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65409</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66739</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80841</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82698</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79834</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83771</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1555170592"/>
+        <c:axId val="1785688016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1555170592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>|V|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785688016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1785688016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555170592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3241,6 +4460,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4274,6 +5573,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4880,6 +7211,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5151,13 +7546,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -6119,7 +8517,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -6139,7 +8537,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -6159,7 +8557,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -6179,7 +8577,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -6199,7 +8597,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -6218,8 +8616,14 @@
       <c r="F53">
         <v>5038</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -6238,8 +8642,18 @@
       <c r="F54">
         <v>5883</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="I54">
+        <f>0.000043*$L54*$M54*$M54/1000/60/60</f>
+        <v>19.111111111111118</v>
+      </c>
+      <c r="L54">
+        <v>16000</v>
+      </c>
+      <c r="M54">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -6259,7 +8673,7 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -6279,7 +8693,7 @@
         <v>6064</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -6299,7 +8713,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -6319,7 +8733,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -6339,7 +8753,7 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -6359,7 +8773,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -6379,7 +8793,7 @@
         <v>6380</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>100</v>
       </c>
@@ -6399,7 +8813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>100</v>
       </c>
@@ -8384,7 +10798,7 @@
         <v>100</v>
       </c>
       <c r="B164">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C164">
         <v>10</v>
@@ -8396,7 +10810,7 @@
         <v>100</v>
       </c>
       <c r="F164">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -8404,7 +10818,7 @@
         <v>100</v>
       </c>
       <c r="B165">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C165">
         <v>10</v>
@@ -8416,7 +10830,7 @@
         <v>200</v>
       </c>
       <c r="F165">
-        <v>248</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -8424,7 +10838,7 @@
         <v>100</v>
       </c>
       <c r="B166">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C166">
         <v>10</v>
@@ -8433,10 +10847,10 @@
         <v>30</v>
       </c>
       <c r="E166">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F166">
-        <v>556</v>
+        <v>939</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
@@ -8444,7 +10858,7 @@
         <v>100</v>
       </c>
       <c r="B167">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C167">
         <v>10</v>
@@ -8453,10 +10867,10 @@
         <v>40</v>
       </c>
       <c r="E167">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F167">
-        <v>1370</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -8464,7 +10878,7 @@
         <v>100</v>
       </c>
       <c r="B168">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C168">
         <v>10</v>
@@ -8473,10 +10887,10 @@
         <v>50</v>
       </c>
       <c r="E168">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F168">
-        <v>2091</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
@@ -8484,7 +10898,7 @@
         <v>100</v>
       </c>
       <c r="B169">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C169">
         <v>10</v>
@@ -8493,10 +10907,10 @@
         <v>60</v>
       </c>
       <c r="E169">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F169">
-        <v>3550</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -8504,7 +10918,7 @@
         <v>100</v>
       </c>
       <c r="B170">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C170">
         <v>10</v>
@@ -8513,10 +10927,10 @@
         <v>70</v>
       </c>
       <c r="E170">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F170">
-        <v>5263</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
@@ -8524,7 +10938,7 @@
         <v>100</v>
       </c>
       <c r="B171">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C171">
         <v>10</v>
@@ -8533,10 +10947,10 @@
         <v>80</v>
       </c>
       <c r="E171">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F171">
-        <v>6209</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -8544,7 +10958,7 @@
         <v>100</v>
       </c>
       <c r="B172">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C172">
         <v>10</v>
@@ -8553,10 +10967,10 @@
         <v>90</v>
       </c>
       <c r="E172">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F172">
-        <v>7229</v>
+        <v>11189</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
@@ -8564,7 +10978,7 @@
         <v>100</v>
       </c>
       <c r="B173">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C173">
         <v>10</v>
@@ -8573,10 +10987,10 @@
         <v>100</v>
       </c>
       <c r="E173">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F173">
-        <v>10167</v>
+        <v>13963</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -8584,7 +10998,7 @@
         <v>100</v>
       </c>
       <c r="B174">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C174">
         <v>10</v>
@@ -8593,10 +11007,10 @@
         <v>110</v>
       </c>
       <c r="E174">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="F174">
-        <v>13878</v>
+        <v>16862</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -8604,7 +11018,7 @@
         <v>100</v>
       </c>
       <c r="B175">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C175">
         <v>10</v>
@@ -8613,10 +11027,10 @@
         <v>120</v>
       </c>
       <c r="E175">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F175">
-        <v>17302</v>
+        <v>18715</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -8624,7 +11038,7 @@
         <v>100</v>
       </c>
       <c r="B176">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C176">
         <v>10</v>
@@ -8633,10 +11047,10 @@
         <v>130</v>
       </c>
       <c r="E176">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F176">
-        <v>19903</v>
+        <v>21208</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -8644,7 +11058,7 @@
         <v>100</v>
       </c>
       <c r="B177">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C177">
         <v>10</v>
@@ -8653,10 +11067,10 @@
         <v>140</v>
       </c>
       <c r="E177">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="F177">
-        <v>23250</v>
+        <v>25695</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -8664,7 +11078,7 @@
         <v>100</v>
       </c>
       <c r="B178">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C178">
         <v>10</v>
@@ -8673,10 +11087,10 @@
         <v>150</v>
       </c>
       <c r="E178">
-        <v>1500</v>
+        <v>1482</v>
       </c>
       <c r="F178">
-        <v>29563</v>
+        <v>25587</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
@@ -8684,7 +11098,7 @@
         <v>100</v>
       </c>
       <c r="B179">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C179">
         <v>10</v>
@@ -8693,10 +11107,10 @@
         <v>160</v>
       </c>
       <c r="E179">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="F179">
-        <v>31356</v>
+        <v>29533</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -8704,7 +11118,7 @@
         <v>100</v>
       </c>
       <c r="B180">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C180">
         <v>10</v>
@@ -8713,10 +11127,10 @@
         <v>170</v>
       </c>
       <c r="E180">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="F180">
-        <v>36961</v>
+        <v>32593</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -8724,7 +11138,7 @@
         <v>100</v>
       </c>
       <c r="B181">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C181">
         <v>10</v>
@@ -8733,10 +11147,10 @@
         <v>180</v>
       </c>
       <c r="E181">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="F181">
-        <v>45743</v>
+        <v>38394</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -8744,7 +11158,7 @@
         <v>100</v>
       </c>
       <c r="B182">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C182">
         <v>10</v>
@@ -8753,10 +11167,10 @@
         <v>190</v>
       </c>
       <c r="E182">
-        <v>1898</v>
+        <v>1871</v>
       </c>
       <c r="F182">
-        <v>49139</v>
+        <v>38269</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -8764,7 +11178,7 @@
         <v>100</v>
       </c>
       <c r="B183">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C183">
         <v>10</v>
@@ -8773,10 +11187,10 @@
         <v>200</v>
       </c>
       <c r="E183">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="F183">
-        <v>56927</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -8784,7 +11198,7 @@
         <v>100</v>
       </c>
       <c r="B184">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C184">
         <v>10</v>
@@ -8793,10 +11207,10 @@
         <v>210</v>
       </c>
       <c r="E184">
-        <v>2098</v>
+        <v>2082</v>
       </c>
       <c r="F184">
-        <v>62174</v>
+        <v>46652</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
@@ -8804,7 +11218,7 @@
         <v>100</v>
       </c>
       <c r="B185">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C185">
         <v>10</v>
@@ -8813,10 +11227,10 @@
         <v>220</v>
       </c>
       <c r="E185">
-        <v>2196</v>
+        <v>2178</v>
       </c>
       <c r="F185">
-        <v>67868</v>
+        <v>51776</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -8824,7 +11238,7 @@
         <v>100</v>
       </c>
       <c r="B186">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C186">
         <v>10</v>
@@ -8833,10 +11247,10 @@
         <v>230</v>
       </c>
       <c r="E186">
-        <v>2298</v>
+        <v>2270</v>
       </c>
       <c r="F186">
-        <v>81369</v>
+        <v>53013</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -8844,7 +11258,7 @@
         <v>100</v>
       </c>
       <c r="B187">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C187">
         <v>10</v>
@@ -8853,10 +11267,10 @@
         <v>240</v>
       </c>
       <c r="E187">
-        <v>2399</v>
+        <v>2368</v>
       </c>
       <c r="F187">
-        <v>80708</v>
+        <v>62110</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -8864,7 +11278,7 @@
         <v>100</v>
       </c>
       <c r="B188">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C188">
         <v>10</v>
@@ -8873,10 +11287,10 @@
         <v>250</v>
       </c>
       <c r="E188">
-        <v>2493</v>
+        <v>2476</v>
       </c>
       <c r="F188">
-        <v>91738</v>
+        <v>61731</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -8884,7 +11298,7 @@
         <v>100</v>
       </c>
       <c r="B189">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C189">
         <v>10</v>
@@ -8893,10 +11307,10 @@
         <v>260</v>
       </c>
       <c r="E189">
-        <v>2595</v>
+        <v>2562</v>
       </c>
       <c r="F189">
-        <v>102829</v>
+        <v>67651</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -8904,7 +11318,7 @@
         <v>100</v>
       </c>
       <c r="B190">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C190">
         <v>10</v>
@@ -8913,10 +11327,10 @@
         <v>270</v>
       </c>
       <c r="E190">
-        <v>2694</v>
+        <v>2661</v>
       </c>
       <c r="F190">
-        <v>107393</v>
+        <v>69036</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
@@ -8924,7 +11338,7 @@
         <v>100</v>
       </c>
       <c r="B191">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C191">
         <v>10</v>
@@ -8933,10 +11347,10 @@
         <v>280</v>
       </c>
       <c r="E191">
-        <v>2797</v>
+        <v>2765</v>
       </c>
       <c r="F191">
-        <v>119589</v>
+        <v>74205</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
@@ -8944,7 +11358,7 @@
         <v>100</v>
       </c>
       <c r="B192">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C192">
         <v>10</v>
@@ -8953,10 +11367,10 @@
         <v>290</v>
       </c>
       <c r="E192">
-        <v>2895</v>
+        <v>2858</v>
       </c>
       <c r="F192">
-        <v>119035</v>
+        <v>77928</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -8964,7 +11378,7 @@
         <v>100</v>
       </c>
       <c r="B193">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C193">
         <v>10</v>
@@ -8973,10 +11387,10 @@
         <v>300</v>
       </c>
       <c r="E193">
-        <v>2998</v>
+        <v>2950</v>
       </c>
       <c r="F193">
-        <v>138189</v>
+        <v>81457</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -8984,7 +11398,7 @@
         <v>100</v>
       </c>
       <c r="B194">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -8993,10 +11407,10 @@
         <v>310</v>
       </c>
       <c r="E194">
-        <v>3094</v>
+        <v>3065</v>
       </c>
       <c r="F194">
-        <v>152731</v>
+        <v>83414</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -9004,7 +11418,7 @@
         <v>100</v>
       </c>
       <c r="B195">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C195">
         <v>10</v>
@@ -9013,10 +11427,10 @@
         <v>320</v>
       </c>
       <c r="E195">
-        <v>3194</v>
+        <v>3146</v>
       </c>
       <c r="F195">
-        <v>148095</v>
+        <v>86984</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -9024,7 +11438,7 @@
         <v>100</v>
       </c>
       <c r="B196">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C196">
         <v>10</v>
@@ -9033,10 +11447,10 @@
         <v>330</v>
       </c>
       <c r="E196">
-        <v>3296</v>
+        <v>3253</v>
       </c>
       <c r="F196">
-        <v>170667</v>
+        <v>94432</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
@@ -9044,7 +11458,7 @@
         <v>100</v>
       </c>
       <c r="B197">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C197">
         <v>10</v>
@@ -9053,10 +11467,10 @@
         <v>340</v>
       </c>
       <c r="E197">
-        <v>3391</v>
+        <v>3353</v>
       </c>
       <c r="F197">
-        <v>179006</v>
+        <v>102606</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -9064,7 +11478,7 @@
         <v>100</v>
       </c>
       <c r="B198">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -9073,10 +11487,10 @@
         <v>350</v>
       </c>
       <c r="E198">
-        <v>3490</v>
+        <v>3437</v>
       </c>
       <c r="F198">
-        <v>178649</v>
+        <v>96496</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -9084,7 +11498,7 @@
         <v>100</v>
       </c>
       <c r="B199">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -9093,10 +11507,10 @@
         <v>360</v>
       </c>
       <c r="E199">
-        <v>3593</v>
+        <v>3538</v>
       </c>
       <c r="F199">
-        <v>198241</v>
+        <v>107138</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -9104,7 +11518,7 @@
         <v>100</v>
       </c>
       <c r="B200">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C200">
         <v>10</v>
@@ -9113,10 +11527,10 @@
         <v>370</v>
       </c>
       <c r="E200">
-        <v>3694</v>
+        <v>3629</v>
       </c>
       <c r="F200">
-        <v>204378</v>
+        <v>110177</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -9124,7 +11538,7 @@
         <v>100</v>
       </c>
       <c r="B201">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C201">
         <v>10</v>
@@ -9133,10 +11547,10 @@
         <v>380</v>
       </c>
       <c r="E201">
-        <v>3793</v>
+        <v>3740</v>
       </c>
       <c r="F201">
-        <v>222847</v>
+        <v>115515</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -9144,7 +11558,7 @@
         <v>100</v>
       </c>
       <c r="B202">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C202">
         <v>10</v>
@@ -9153,10 +11567,10 @@
         <v>390</v>
       </c>
       <c r="E202">
-        <v>3887</v>
+        <v>3823</v>
       </c>
       <c r="F202">
-        <v>234690</v>
+        <v>115565</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
@@ -9164,7 +11578,7 @@
         <v>100</v>
       </c>
       <c r="B203">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C203">
         <v>10</v>
@@ -9173,10 +11587,10 @@
         <v>400</v>
       </c>
       <c r="E203">
-        <v>3994</v>
+        <v>3926</v>
       </c>
       <c r="F203">
-        <v>244599</v>
+        <v>122192</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
@@ -9184,7 +11598,7 @@
         <v>100</v>
       </c>
       <c r="B205">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C205">
         <v>10</v>
@@ -9196,7 +11610,7 @@
         <v>100</v>
       </c>
       <c r="F205">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
@@ -9204,7 +11618,7 @@
         <v>100</v>
       </c>
       <c r="B206">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C206">
         <v>20</v>
@@ -9216,7 +11630,7 @@
         <v>200</v>
       </c>
       <c r="F206">
-        <v>218</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
@@ -9224,7 +11638,7 @@
         <v>100</v>
       </c>
       <c r="B207">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C207">
         <v>30</v>
@@ -9233,10 +11647,10 @@
         <v>10</v>
       </c>
       <c r="E207">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F207">
-        <v>550</v>
+        <v>913</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -9244,7 +11658,7 @@
         <v>100</v>
       </c>
       <c r="B208">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C208">
         <v>40</v>
@@ -9253,10 +11667,10 @@
         <v>10</v>
       </c>
       <c r="E208">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F208">
-        <v>1031</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
@@ -9264,7 +11678,7 @@
         <v>100</v>
       </c>
       <c r="B209">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C209">
         <v>50</v>
@@ -9273,10 +11687,10 @@
         <v>10</v>
       </c>
       <c r="E209">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F209">
-        <v>1887</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
@@ -9284,7 +11698,7 @@
         <v>100</v>
       </c>
       <c r="B210">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C210">
         <v>60</v>
@@ -9293,10 +11707,10 @@
         <v>10</v>
       </c>
       <c r="E210">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F210">
-        <v>3359</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -9304,7 +11718,7 @@
         <v>100</v>
       </c>
       <c r="B211">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C211">
         <v>70</v>
@@ -9313,10 +11727,10 @@
         <v>10</v>
       </c>
       <c r="E211">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F211">
-        <v>4336</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
@@ -9324,7 +11738,7 @@
         <v>100</v>
       </c>
       <c r="B212">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C212">
         <v>80</v>
@@ -9333,10 +11747,10 @@
         <v>10</v>
       </c>
       <c r="E212">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F212">
-        <v>6024</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -9344,7 +11758,7 @@
         <v>100</v>
       </c>
       <c r="B213">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C213">
         <v>90</v>
@@ -9353,10 +11767,10 @@
         <v>10</v>
       </c>
       <c r="E213">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F213">
-        <v>6561</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
@@ -9364,7 +11778,7 @@
         <v>100</v>
       </c>
       <c r="B214">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C214">
         <v>100</v>
@@ -9373,10 +11787,10 @@
         <v>10</v>
       </c>
       <c r="E214">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F214">
-        <v>7583</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
@@ -9384,7 +11798,7 @@
         <v>100</v>
       </c>
       <c r="B215">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C215">
         <v>110</v>
@@ -9393,10 +11807,10 @@
         <v>10</v>
       </c>
       <c r="E215">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F215">
-        <v>10024</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -9404,7 +11818,7 @@
         <v>100</v>
       </c>
       <c r="B216">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C216">
         <v>120</v>
@@ -9413,10 +11827,10 @@
         <v>10</v>
       </c>
       <c r="E216">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F216">
-        <v>10952</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
@@ -9424,7 +11838,7 @@
         <v>100</v>
       </c>
       <c r="B217">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C217">
         <v>130</v>
@@ -9433,10 +11847,10 @@
         <v>10</v>
       </c>
       <c r="E217">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="F217">
-        <v>14934</v>
+        <v>11472</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -9444,7 +11858,7 @@
         <v>100</v>
       </c>
       <c r="B218">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C218">
         <v>140</v>
@@ -9453,10 +11867,10 @@
         <v>10</v>
       </c>
       <c r="E218">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="F218">
-        <v>19525</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -9464,7 +11878,7 @@
         <v>100</v>
       </c>
       <c r="B219">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C219">
         <v>150</v>
@@ -9473,10 +11887,10 @@
         <v>10</v>
       </c>
       <c r="E219">
-        <v>1500</v>
+        <v>1484</v>
       </c>
       <c r="F219">
-        <v>19106</v>
+        <v>14128</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -9484,7 +11898,7 @@
         <v>100</v>
       </c>
       <c r="B220">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C220">
         <v>160</v>
@@ -9493,10 +11907,10 @@
         <v>10</v>
       </c>
       <c r="E220">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="F220">
-        <v>17328</v>
+        <v>17484</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
@@ -9504,7 +11918,7 @@
         <v>100</v>
       </c>
       <c r="B221">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C221">
         <v>170</v>
@@ -9513,10 +11927,10 @@
         <v>10</v>
       </c>
       <c r="E221">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="F221">
-        <v>24853</v>
+        <v>17383</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
@@ -9524,7 +11938,7 @@
         <v>100</v>
       </c>
       <c r="B222">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C222">
         <v>180</v>
@@ -9533,10 +11947,10 @@
         <v>10</v>
       </c>
       <c r="E222">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="F222">
-        <v>26761</v>
+        <v>19353</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
@@ -9544,7 +11958,7 @@
         <v>100</v>
       </c>
       <c r="B223">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C223">
         <v>190</v>
@@ -9553,10 +11967,10 @@
         <v>10</v>
       </c>
       <c r="E223">
-        <v>1898</v>
+        <v>1871</v>
       </c>
       <c r="F223">
-        <v>31905</v>
+        <v>20479</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -9564,7 +11978,7 @@
         <v>100</v>
       </c>
       <c r="B224">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C224">
         <v>200</v>
@@ -9573,10 +11987,10 @@
         <v>10</v>
       </c>
       <c r="E224">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="F224">
-        <v>32060</v>
+        <v>21987</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
@@ -9584,7 +11998,7 @@
         <v>100</v>
       </c>
       <c r="B225">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C225">
         <v>210</v>
@@ -9593,10 +12007,10 @@
         <v>10</v>
       </c>
       <c r="E225">
-        <v>2098</v>
+        <v>2082</v>
       </c>
       <c r="F225">
-        <v>29294</v>
+        <v>23050</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
@@ -9604,7 +12018,7 @@
         <v>100</v>
       </c>
       <c r="B226">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C226">
         <v>220</v>
@@ -9613,10 +12027,10 @@
         <v>10</v>
       </c>
       <c r="E226">
-        <v>2200</v>
+        <v>2183</v>
       </c>
       <c r="F226">
-        <v>38447</v>
+        <v>24742</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
@@ -9624,7 +12038,7 @@
         <v>100</v>
       </c>
       <c r="B227">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C227">
         <v>230</v>
@@ -9633,10 +12047,10 @@
         <v>10</v>
       </c>
       <c r="E227">
-        <v>2293</v>
+        <v>2277</v>
       </c>
       <c r="F227">
-        <v>39176</v>
+        <v>23959</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
@@ -9644,7 +12058,7 @@
         <v>100</v>
       </c>
       <c r="B228">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C228">
         <v>240</v>
@@ -9653,10 +12067,10 @@
         <v>10</v>
       </c>
       <c r="E228">
-        <v>2395</v>
+        <v>2364</v>
       </c>
       <c r="F228">
-        <v>44341</v>
+        <v>26861</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
@@ -9664,7 +12078,7 @@
         <v>100</v>
       </c>
       <c r="B229">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C229">
         <v>250</v>
@@ -9673,10 +12087,10 @@
         <v>10</v>
       </c>
       <c r="E229">
-        <v>2498</v>
+        <v>2476</v>
       </c>
       <c r="F229">
-        <v>42415</v>
+        <v>29418</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
@@ -9684,7 +12098,7 @@
         <v>100</v>
       </c>
       <c r="B230">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C230">
         <v>260</v>
@@ -9692,8 +12106,1091 @@
       <c r="D230">
         <v>10</v>
       </c>
-      <c r="E230" t="s">
-        <v>6</v>
+      <c r="E230">
+        <v>2561</v>
+      </c>
+      <c r="F230">
+        <v>29888</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>100</v>
+      </c>
+      <c r="B231">
+        <v>1000</v>
+      </c>
+      <c r="C231">
+        <v>270</v>
+      </c>
+      <c r="D231">
+        <v>10</v>
+      </c>
+      <c r="E231">
+        <v>2660</v>
+      </c>
+      <c r="F231">
+        <v>31906</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>100</v>
+      </c>
+      <c r="B232">
+        <v>1000</v>
+      </c>
+      <c r="C232">
+        <v>280</v>
+      </c>
+      <c r="D232">
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <v>2760</v>
+      </c>
+      <c r="F232">
+        <v>32993</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>100</v>
+      </c>
+      <c r="B233">
+        <v>1000</v>
+      </c>
+      <c r="C233">
+        <v>290</v>
+      </c>
+      <c r="D233">
+        <v>10</v>
+      </c>
+      <c r="E233">
+        <v>2861</v>
+      </c>
+      <c r="F233">
+        <v>33078</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>100</v>
+      </c>
+      <c r="B234">
+        <v>1000</v>
+      </c>
+      <c r="C234">
+        <v>300</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>2948</v>
+      </c>
+      <c r="F234">
+        <v>34107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>100</v>
+      </c>
+      <c r="B235">
+        <v>1000</v>
+      </c>
+      <c r="C235">
+        <v>310</v>
+      </c>
+      <c r="D235">
+        <v>10</v>
+      </c>
+      <c r="E235">
+        <v>3065</v>
+      </c>
+      <c r="F235">
+        <v>37008</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>100</v>
+      </c>
+      <c r="B236">
+        <v>1000</v>
+      </c>
+      <c r="C236">
+        <v>320</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>3147</v>
+      </c>
+      <c r="F236">
+        <v>38974</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>100</v>
+      </c>
+      <c r="B237">
+        <v>1000</v>
+      </c>
+      <c r="C237">
+        <v>330</v>
+      </c>
+      <c r="D237">
+        <v>10</v>
+      </c>
+      <c r="E237">
+        <v>3236</v>
+      </c>
+      <c r="F237">
+        <v>41476</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>100</v>
+      </c>
+      <c r="B238">
+        <v>1000</v>
+      </c>
+      <c r="C238">
+        <v>340</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>3356</v>
+      </c>
+      <c r="F238">
+        <v>42181</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>100</v>
+      </c>
+      <c r="B239">
+        <v>1000</v>
+      </c>
+      <c r="C239">
+        <v>350</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>3447</v>
+      </c>
+      <c r="F239">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>100</v>
+      </c>
+      <c r="B240">
+        <v>1000</v>
+      </c>
+      <c r="C240">
+        <v>360</v>
+      </c>
+      <c r="D240">
+        <v>10</v>
+      </c>
+      <c r="E240">
+        <v>3536</v>
+      </c>
+      <c r="F240">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>100</v>
+      </c>
+      <c r="B241">
+        <v>1000</v>
+      </c>
+      <c r="C241">
+        <v>370</v>
+      </c>
+      <c r="D241">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>3634</v>
+      </c>
+      <c r="F241">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>100</v>
+      </c>
+      <c r="B242">
+        <v>1000</v>
+      </c>
+      <c r="C242">
+        <v>380</v>
+      </c>
+      <c r="D242">
+        <v>10</v>
+      </c>
+      <c r="E242">
+        <v>3730</v>
+      </c>
+      <c r="F242">
+        <v>47687</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>100</v>
+      </c>
+      <c r="B243">
+        <v>1000</v>
+      </c>
+      <c r="C243">
+        <v>390</v>
+      </c>
+      <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="E243">
+        <v>3815</v>
+      </c>
+      <c r="F243">
+        <v>49524</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>100</v>
+      </c>
+      <c r="B244">
+        <v>1000</v>
+      </c>
+      <c r="C244">
+        <v>400</v>
+      </c>
+      <c r="D244">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>3925</v>
+      </c>
+      <c r="F244">
+        <v>52125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>100</v>
+      </c>
+      <c r="B246">
+        <v>10000</v>
+      </c>
+      <c r="C246">
+        <v>10</v>
+      </c>
+      <c r="D246">
+        <v>10</v>
+      </c>
+      <c r="E246">
+        <v>100</v>
+      </c>
+      <c r="F246">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>100</v>
+      </c>
+      <c r="B247">
+        <v>10000</v>
+      </c>
+      <c r="C247">
+        <v>20</v>
+      </c>
+      <c r="D247">
+        <v>10</v>
+      </c>
+      <c r="E247">
+        <v>200</v>
+      </c>
+      <c r="F247">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>100</v>
+      </c>
+      <c r="B248">
+        <v>10000</v>
+      </c>
+      <c r="C248">
+        <v>30</v>
+      </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+      <c r="E248">
+        <v>300</v>
+      </c>
+      <c r="F248">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>100</v>
+      </c>
+      <c r="B249">
+        <v>10000</v>
+      </c>
+      <c r="C249">
+        <v>40</v>
+      </c>
+      <c r="D249">
+        <v>10</v>
+      </c>
+      <c r="E249">
+        <v>400</v>
+      </c>
+      <c r="F249">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>100</v>
+      </c>
+      <c r="B250">
+        <v>10000</v>
+      </c>
+      <c r="C250">
+        <v>50</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>500</v>
+      </c>
+      <c r="F250">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>100</v>
+      </c>
+      <c r="B251">
+        <v>10000</v>
+      </c>
+      <c r="C251">
+        <v>60</v>
+      </c>
+      <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="E251">
+        <v>600</v>
+      </c>
+      <c r="F251">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>100</v>
+      </c>
+      <c r="B252">
+        <v>10000</v>
+      </c>
+      <c r="C252">
+        <v>70</v>
+      </c>
+      <c r="D252">
+        <v>10</v>
+      </c>
+      <c r="E252">
+        <v>699</v>
+      </c>
+      <c r="F252">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>100</v>
+      </c>
+      <c r="B253">
+        <v>10000</v>
+      </c>
+      <c r="C253">
+        <v>80</v>
+      </c>
+      <c r="D253">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>800</v>
+      </c>
+      <c r="F253">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>100</v>
+      </c>
+      <c r="B254">
+        <v>10000</v>
+      </c>
+      <c r="C254">
+        <v>90</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254">
+        <v>900</v>
+      </c>
+      <c r="F254">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>100</v>
+      </c>
+      <c r="B255">
+        <v>10000</v>
+      </c>
+      <c r="C255">
+        <v>100</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>999</v>
+      </c>
+      <c r="F255">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>100</v>
+      </c>
+      <c r="B256">
+        <v>10000</v>
+      </c>
+      <c r="C256">
+        <v>110</v>
+      </c>
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>1099</v>
+      </c>
+      <c r="F256">
+        <v>11461</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>100</v>
+      </c>
+      <c r="B257">
+        <v>10000</v>
+      </c>
+      <c r="C257">
+        <v>120</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257">
+        <v>1197</v>
+      </c>
+      <c r="F257">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>100</v>
+      </c>
+      <c r="B258">
+        <v>10000</v>
+      </c>
+      <c r="C258">
+        <v>130</v>
+      </c>
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>1300</v>
+      </c>
+      <c r="F258">
+        <v>16531</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>100</v>
+      </c>
+      <c r="B259">
+        <v>10000</v>
+      </c>
+      <c r="C259">
+        <v>140</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259">
+        <v>1400</v>
+      </c>
+      <c r="F259">
+        <v>18828</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>100</v>
+      </c>
+      <c r="B260">
+        <v>10000</v>
+      </c>
+      <c r="C260">
+        <v>150</v>
+      </c>
+      <c r="D260">
+        <v>10</v>
+      </c>
+      <c r="E260">
+        <v>1498</v>
+      </c>
+      <c r="F260">
+        <v>21491</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>100</v>
+      </c>
+      <c r="B261">
+        <v>10000</v>
+      </c>
+      <c r="C261">
+        <v>160</v>
+      </c>
+      <c r="D261">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>1600</v>
+      </c>
+      <c r="F261">
+        <v>19439</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>100</v>
+      </c>
+      <c r="B262">
+        <v>10000</v>
+      </c>
+      <c r="C262">
+        <v>170</v>
+      </c>
+      <c r="D262">
+        <v>10</v>
+      </c>
+      <c r="E262">
+        <v>1698</v>
+      </c>
+      <c r="F262">
+        <v>23556</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>100</v>
+      </c>
+      <c r="B263">
+        <v>10000</v>
+      </c>
+      <c r="C263">
+        <v>180</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>1799</v>
+      </c>
+      <c r="F263">
+        <v>27276</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>100</v>
+      </c>
+      <c r="B264">
+        <v>10000</v>
+      </c>
+      <c r="C264">
+        <v>190</v>
+      </c>
+      <c r="D264">
+        <v>10</v>
+      </c>
+      <c r="E264">
+        <v>1898</v>
+      </c>
+      <c r="F264">
+        <v>26766</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>100</v>
+      </c>
+      <c r="B265">
+        <v>10000</v>
+      </c>
+      <c r="C265">
+        <v>200</v>
+      </c>
+      <c r="D265">
+        <v>10</v>
+      </c>
+      <c r="E265">
+        <v>1997</v>
+      </c>
+      <c r="F265">
+        <v>30883</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>100</v>
+      </c>
+      <c r="B266">
+        <v>10000</v>
+      </c>
+      <c r="C266">
+        <v>210</v>
+      </c>
+      <c r="D266">
+        <v>10</v>
+      </c>
+      <c r="E266">
+        <v>2098</v>
+      </c>
+      <c r="F266">
+        <v>36048</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>100</v>
+      </c>
+      <c r="B267">
+        <v>10000</v>
+      </c>
+      <c r="C267">
+        <v>220</v>
+      </c>
+      <c r="D267">
+        <v>10</v>
+      </c>
+      <c r="E267">
+        <v>2197</v>
+      </c>
+      <c r="F267">
+        <v>41314</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>100</v>
+      </c>
+      <c r="B268">
+        <v>10000</v>
+      </c>
+      <c r="C268">
+        <v>230</v>
+      </c>
+      <c r="D268">
+        <v>10</v>
+      </c>
+      <c r="E268">
+        <v>2299</v>
+      </c>
+      <c r="F268">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>100</v>
+      </c>
+      <c r="B269">
+        <v>10000</v>
+      </c>
+      <c r="C269">
+        <v>240</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+      <c r="E269">
+        <v>2400</v>
+      </c>
+      <c r="F269">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>100</v>
+      </c>
+      <c r="B270">
+        <v>10000</v>
+      </c>
+      <c r="C270">
+        <v>250</v>
+      </c>
+      <c r="D270">
+        <v>10</v>
+      </c>
+      <c r="E270">
+        <v>2499</v>
+      </c>
+      <c r="F270">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>100</v>
+      </c>
+      <c r="B271">
+        <v>10000</v>
+      </c>
+      <c r="C271">
+        <v>260</v>
+      </c>
+      <c r="D271">
+        <v>10</v>
+      </c>
+      <c r="E271">
+        <v>2594</v>
+      </c>
+      <c r="F271">
+        <v>47334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>100</v>
+      </c>
+      <c r="B272">
+        <v>10000</v>
+      </c>
+      <c r="C272">
+        <v>270</v>
+      </c>
+      <c r="D272">
+        <v>10</v>
+      </c>
+      <c r="E272">
+        <v>2692</v>
+      </c>
+      <c r="F272">
+        <v>47048</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>100</v>
+      </c>
+      <c r="B273">
+        <v>10000</v>
+      </c>
+      <c r="C273">
+        <v>280</v>
+      </c>
+      <c r="D273">
+        <v>10</v>
+      </c>
+      <c r="E273">
+        <v>2798</v>
+      </c>
+      <c r="F273">
+        <v>54947</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>100</v>
+      </c>
+      <c r="B274">
+        <v>10000</v>
+      </c>
+      <c r="C274">
+        <v>290</v>
+      </c>
+      <c r="D274">
+        <v>10</v>
+      </c>
+      <c r="E274">
+        <v>2896</v>
+      </c>
+      <c r="F274">
+        <v>53078</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>100</v>
+      </c>
+      <c r="B275">
+        <v>10000</v>
+      </c>
+      <c r="C275">
+        <v>300</v>
+      </c>
+      <c r="D275">
+        <v>10</v>
+      </c>
+      <c r="E275">
+        <v>2992</v>
+      </c>
+      <c r="F275">
+        <v>55650</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>100</v>
+      </c>
+      <c r="B276">
+        <v>10000</v>
+      </c>
+      <c r="C276">
+        <v>310</v>
+      </c>
+      <c r="D276">
+        <v>10</v>
+      </c>
+      <c r="E276">
+        <v>3096</v>
+      </c>
+      <c r="F276">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>100</v>
+      </c>
+      <c r="B277">
+        <v>10000</v>
+      </c>
+      <c r="C277">
+        <v>320</v>
+      </c>
+      <c r="D277">
+        <v>10</v>
+      </c>
+      <c r="E277">
+        <v>3191</v>
+      </c>
+      <c r="F277">
+        <v>65409</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>100</v>
+      </c>
+      <c r="B278">
+        <v>10000</v>
+      </c>
+      <c r="C278">
+        <v>330</v>
+      </c>
+      <c r="D278">
+        <v>10</v>
+      </c>
+      <c r="E278">
+        <v>3297</v>
+      </c>
+      <c r="F278">
+        <v>73096</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>100</v>
+      </c>
+      <c r="B279">
+        <v>10000</v>
+      </c>
+      <c r="C279">
+        <v>340</v>
+      </c>
+      <c r="D279">
+        <v>10</v>
+      </c>
+      <c r="E279">
+        <v>3394</v>
+      </c>
+      <c r="F279">
+        <v>66739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>100</v>
+      </c>
+      <c r="B280">
+        <v>10000</v>
+      </c>
+      <c r="C280">
+        <v>350</v>
+      </c>
+      <c r="D280">
+        <v>10</v>
+      </c>
+      <c r="E280">
+        <v>3496</v>
+      </c>
+      <c r="F280">
+        <v>80841</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>100</v>
+      </c>
+      <c r="B281">
+        <v>10000</v>
+      </c>
+      <c r="C281">
+        <v>360</v>
+      </c>
+      <c r="D281">
+        <v>10</v>
+      </c>
+      <c r="E281">
+        <v>3593</v>
+      </c>
+      <c r="F281">
+        <v>82698</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>100</v>
+      </c>
+      <c r="B282">
+        <v>10000</v>
+      </c>
+      <c r="C282">
+        <v>370</v>
+      </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
+      <c r="E282">
+        <v>3694</v>
+      </c>
+      <c r="F282">
+        <v>79834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>100</v>
+      </c>
+      <c r="B283">
+        <v>10000</v>
+      </c>
+      <c r="C283">
+        <v>380</v>
+      </c>
+      <c r="D283">
+        <v>10</v>
+      </c>
+      <c r="E283">
+        <v>3794</v>
+      </c>
+      <c r="F283">
+        <v>83099</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>100</v>
+      </c>
+      <c r="B284">
+        <v>10000</v>
+      </c>
+      <c r="C284">
+        <v>390</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+      <c r="E284">
+        <v>3890</v>
+      </c>
+      <c r="F284">
+        <v>83771</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>100</v>
+      </c>
+      <c r="B285">
+        <v>10000</v>
+      </c>
+      <c r="C285">
+        <v>400</v>
+      </c>
+      <c r="D285">
+        <v>10</v>
+      </c>
+      <c r="E285">
+        <v>3993</v>
+      </c>
+      <c r="F285">
+        <v>86874</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PerplexityResults/TGPerformanceTester.xlsx
+++ b/doc/PerplexityResults/TGPerformanceTester.xlsx
@@ -1114,11 +1114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1556372320"/>
-        <c:axId val="1556381024"/>
+        <c:axId val="-386016000"/>
+        <c:axId val="-386013280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1556372320"/>
+        <c:axId val="-386016000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1231,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556381024"/>
+        <c:crossAx val="-386013280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1556381024"/>
+        <c:axId val="-386013280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556372320"/>
+        <c:crossAx val="-386016000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2142,11 +2142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1556382656"/>
-        <c:axId val="1556376672"/>
+        <c:axId val="-386019808"/>
+        <c:axId val="-386011648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1556382656"/>
+        <c:axId val="-386019808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,12 +2259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556376672"/>
+        <c:crossAx val="-386011648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1556376672"/>
+        <c:axId val="-386011648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556382656"/>
+        <c:crossAx val="-386019808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2806,11 +2806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1556376128"/>
-        <c:axId val="1556378304"/>
+        <c:axId val="-386004576"/>
+        <c:axId val="-386017632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1556376128"/>
+        <c:axId val="-386004576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,12 +2923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556378304"/>
+        <c:crossAx val="-386017632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1556378304"/>
+        <c:axId val="-386017632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556376128"/>
+        <c:crossAx val="-386004576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3470,11 +3470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1556384832"/>
-        <c:axId val="1556385376"/>
+        <c:axId val="-386009472"/>
+        <c:axId val="-386016544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1556384832"/>
+        <c:axId val="-386009472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,12 +3531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556385376"/>
+        <c:crossAx val="-386016544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1556385376"/>
+        <c:axId val="-386016544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1556384832"/>
+        <c:crossAx val="-386009472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4056,11 +4056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1555170592"/>
-        <c:axId val="1785688016"/>
+        <c:axId val="-386014368"/>
+        <c:axId val="-361264176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1555170592"/>
+        <c:axId val="-386014368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,12 +4173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785688016"/>
+        <c:crossAx val="-361264176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1785688016"/>
+        <c:axId val="-361264176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1555170592"/>
+        <c:crossAx val="-386014368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7548,8 +7548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8643,8 +8643,8 @@
         <v>5883</v>
       </c>
       <c r="I54">
-        <f>0.000043*$L54*$M54*$M54/1000/60/60</f>
-        <v>19.111111111111118</v>
+        <f>0.000009*$L54*$M54*$M54/1000/60/60</f>
+        <v>4.0000000000000009</v>
       </c>
       <c r="L54">
         <v>16000</v>

--- a/doc/PerplexityResults/TGPerformanceTester.xlsx
+++ b/doc/PerplexityResults/TGPerformanceTester.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>docs</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>time in ms</t>
+  </si>
+  <si>
+    <t>Result on AP Corpus</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -669,7 +677,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1114,11 +1121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-386016000"/>
-        <c:axId val="-386013280"/>
+        <c:axId val="-1177100272"/>
+        <c:axId val="-1177099184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-386016000"/>
+        <c:axId val="-1177100272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1171,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1231,12 +1237,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386013280"/>
+        <c:crossAx val="-1177099184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-386013280"/>
+        <c:axId val="-1177099184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,7 +1288,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1349,7 +1354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386016000"/>
+        <c:crossAx val="-1177100272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1413,7 +1418,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2142,11 +2146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-386019808"/>
-        <c:axId val="-386011648"/>
+        <c:axId val="-1177097008"/>
+        <c:axId val="-1348645504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-386019808"/>
+        <c:axId val="-1177097008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2196,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2259,12 +2262,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386011648"/>
+        <c:crossAx val="-1348645504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-386011648"/>
+        <c:axId val="-1348645504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2313,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2377,7 +2379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386019808"/>
+        <c:crossAx val="-1177097008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2427,6 +2429,1910 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>performance!$E$164:$E$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1587</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1687</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1787</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2368</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2476</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3437</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3823</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>performance!$F$164:$F$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25695</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29533</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32593</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38269</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46652</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51776</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62110</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61731</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74205</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77928</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81457</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83414</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86984</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>94432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>102606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96496</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107138</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115515</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115565</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>122192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1348643872"/>
+        <c:axId val="-1348642784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1348643872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>|V|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1348642784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1348642784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1348643872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>performance!$E$205:$E$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2476</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3447</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3815</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>performance!$F$205:$F$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17484</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17383</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20479</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24742</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23959</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29418</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34107</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38974</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42181</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46168</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47687</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49524</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1350086864"/>
+        <c:axId val="-1350085232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1350086864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1350085232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1350085232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1350086864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                      <a:t>y = 0,0029x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                      <a:t> + 12,399x - 4535,9</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1050"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>performance!$E$246:$E$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3394</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3794</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>performance!$F$246:$F$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11461</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21491</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30883</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47048</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54947</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65409</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66739</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80841</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82698</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79834</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83771</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1020798720"/>
+        <c:axId val="-1020810688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1020798720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>|V|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1020810688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1020810688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1020798720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2502,8 +4408,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2540,258 +4445,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>performance!$E$164:$E$203</c:f>
+              <c:f>performance!$D$289:$D$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>2865675024000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1196</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1297</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1390</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1587</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1687</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1787</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2082</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2178</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2270</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2368</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2476</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2562</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2661</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2765</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2858</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2950</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3065</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3146</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3253</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3353</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3437</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3538</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3629</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3740</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3823</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3926</c:v>
+                  <c:v>91563521250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>performance!$F$164:$F$203</c:f>
+              <c:f>performance!$C$289:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>15813017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3259</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4878</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6934</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8864</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11189</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13963</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16862</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18715</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21208</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25695</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25587</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29533</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32593</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38394</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38269</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46652</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51776</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53013</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>62110</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>61731</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>67651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>69036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74205</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>77928</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>81457</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>83414</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>86984</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>94432</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>102606</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96496</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>107138</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>110177</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>115515</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>115565</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>122192</c:v>
+                  <c:v>843426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,675 +4483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-386004576"/>
-        <c:axId val="-386017632"/>
+        <c:axId val="-1020806336"/>
+        <c:axId val="-1020796544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-386004576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>|V|</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-386017632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-386017632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-386004576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>performance!$E$205:$E$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>894</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1194</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1295</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1393</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1484</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1584</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1688</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1792</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2082</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2183</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2277</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2364</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2476</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2561</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2660</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2760</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2861</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2948</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3065</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3147</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3236</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3356</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3447</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3634</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3730</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3815</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>performance!$F$205:$F$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>913</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1585</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2364</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3274</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4903</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5782</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7733</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8781</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11618</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11472</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14128</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17484</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17383</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19353</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20479</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21987</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24742</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23959</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26861</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29418</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29888</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31906</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32993</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33078</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34107</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37008</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38974</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41476</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42181</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42666</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>46168</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>47687</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>49524</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>52125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-386009472"/>
-        <c:axId val="-386016544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-386009472"/>
+        <c:axId val="-1020806336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,12 +4544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386016544"/>
+        <c:crossAx val="-1020796544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-386016544"/>
+        <c:axId val="-1020796544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,705 +4606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386009472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
-                      <a:t>y = 0,0029x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1050" baseline="0"/>
-                      <a:t> + 12,399x - 4535,9</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1050"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>performance!$E$246:$E$285</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1197</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1698</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1799</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2098</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2499</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2594</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2692</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2798</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2992</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3096</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3191</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3297</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3394</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3496</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3593</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3694</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3794</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3890</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>performance!$F$246:$F$285</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3188</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4647</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6190</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6489</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9792</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11461</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11682</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16531</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18828</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21491</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19439</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23556</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27276</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26766</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30883</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36048</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41314</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43428</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42194</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>47334</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>47048</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54947</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>53078</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>55650</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67900</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>65409</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>73096</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>66739</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80841</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>82698</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>79834</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>83099</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>83771</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>86874</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-386014368"/>
-        <c:axId val="-361264176"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-386014368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>|V|</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-361264176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-361264176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>ms</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-386014368"/>
+        <c:crossAx val="-1020806336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4540,6 +4855,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6605,6 +6960,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7218,16 +8089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>747713</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>747713</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7275,6 +8146,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7546,10 +8447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8643,14 +9544,14 @@
         <v>5883</v>
       </c>
       <c r="I54">
-        <f>0.000009*$L54*$M54*$M54/1000/60/60</f>
-        <v>4.0000000000000009</v>
+        <f>0.0000055*$L54*$M54*$M54/1000/60/60</f>
+        <v>4.3781146199999998</v>
       </c>
       <c r="L54">
         <v>16000</v>
       </c>
       <c r="M54">
-        <v>10000</v>
+        <v>13383</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
@@ -13191,6 +14092,54 @@
       </c>
       <c r="F285">
         <v>86874</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>13383</v>
+      </c>
+      <c r="B289">
+        <v>16000</v>
+      </c>
+      <c r="C289">
+        <f>15813017</f>
+        <v>15813017</v>
+      </c>
+      <c r="D289">
+        <f>$A289*$A289*$B289</f>
+        <v>2865675024000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>5575</v>
+      </c>
+      <c r="B290">
+        <v>2946</v>
+      </c>
+      <c r="C290">
+        <f>843426</f>
+        <v>843426</v>
+      </c>
+      <c r="D290">
+        <f t="shared" ref="D290" si="0">$A290*$A290*$B290</f>
+        <v>91563521250</v>
       </c>
     </row>
   </sheetData>
